--- a/business-doc/20200309系统需要批量上传的数据文件/合格供方名录.xlsx
+++ b/business-doc/20200309系统需要批量上传的数据文件/合格供方名录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/IdeaProjects/fmis-process/business-doc/20200309系统需要批量上传的数据文件/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15480" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="1-5" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1-5'!$A$3:$J$118</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1-5'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,9 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商</t>
-  </si>
-  <si>
     <t>安全阀</t>
   </si>
   <si>
@@ -56,26 +63,6 @@
   </si>
   <si>
     <t>油罐</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>评定供应商等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>交货速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品质量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -498,735 +485,759 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>偏心蝶阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>良</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>接头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款到发货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动执行器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨修电动执行器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州云涌科技有限责任公司 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡聚义德自动化设备有限公司</t>
+  </si>
+  <si>
+    <t>模块设计APP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块采购APP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北衡瑞环保设备有限公司（尊龙）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款到发货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬胶止回阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州波莱斯阀门有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州山晨阀门科技有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝扣阀门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>良</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>较快</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款到发货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业类阀门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款到发货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南汇隆节能科技有限公司</t>
+  </si>
+  <si>
+    <t>艺创阀门科技有限公司</t>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞后</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬氟/衬胶类阀门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>气动配件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>气动配件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款到发货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排气/排泥阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏普新跃（北京）科技有限公司（杰克龙）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASCO电磁阀/不锈钢排气阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款到发货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生级阀门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江弗朗戈自控阀门有限公司（金科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全焊接球阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江宝泉阀门有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州雨辰流体设备有限公司</t>
+  </si>
+  <si>
+    <t>浙江朗格阀门科技有限公司</t>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京赛世达自动化科技有限公司</t>
+  </si>
+  <si>
+    <t>保一集团有限公司</t>
+  </si>
+  <si>
+    <t>永嘉县天虹阀门制造有限公司</t>
+  </si>
+  <si>
+    <t>波纹管截止阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>半球阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江亿众阀门有限公司</t>
+  </si>
+  <si>
+    <t>安徽纵横泵阀制造有限公司</t>
+  </si>
+  <si>
+    <t>扇形气动执行器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>象山石浦东海气缸厂（普通合伙）</t>
+  </si>
+  <si>
+    <t>永嘉县圣海阀门制造有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西隆达御威流体控制设备有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州诚博阀门有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉县康密迪阀门有限公司（良精）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江龙珠阀门科技有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>永嘉县上日阀门厂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴伟阀门制造有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江天特阀门有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>永一阀门集团有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海白云泵阀制造有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江高创泵阀有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京航天金博波纹管有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江索特阀门有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海拓保实业发展有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>余姚永创电磁阀有限公司/北京欧科普自控设备有限公司（可开票）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江秀泰阀门有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州汉腾自动化设备有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市盛凯达阀业有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津百利二通机械有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡市高商气动工业有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市申利达阀门销售中心（埃美柯）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢/铸铁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢/不锈钢</t>
+  </si>
+  <si>
+    <t>铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸截止球阀过滤器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>软密封闸阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>软密封闸阀/过滤器/橡胶瓣止回阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>软密封闸阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸截止</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水力控制阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬氟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬胶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬氟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔膜阀/止回阀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全焊接球阀/氧气阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李登泰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>众源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸截止</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业调节阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通调节阀/平衡阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁/铸钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁/铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁/铸钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大口径硬密封闸阀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPVC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜/铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜/铸钢/不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动执行器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年临时合格供方名录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州新盛阀门有限公司（祥松）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西山佳阀门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京环能鸿晟节能设备有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水力控制阀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品质量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货速度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>目前合作状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偏心蝶阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>良</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>接头</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>款到发货</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸门</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>低于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动执行器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨修电动执行器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州云涌科技有限责任公司 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡聚义德自动化设备有限公司</t>
-  </si>
-  <si>
-    <t>模块设计APP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块采购APP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北衡瑞环保设备有限公司（尊龙）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>款到发货</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬胶止回阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州波莱斯阀门有限公司</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州山晨阀门科技有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝扣阀门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>优</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>良</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>较快</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>低于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>款到发货</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业类阀门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>款到发货</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南汇隆节能科技有限公司</t>
-  </si>
-  <si>
-    <t>艺创阀门科技有限公司</t>
-  </si>
-  <si>
-    <t>长期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-A</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-A</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>低于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>滞后</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬氟/衬胶类阀门</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>气动配件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>气动配件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过滤器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>款到发货</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排气/排泥阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>低于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏普新跃（北京）科技有限公司（杰克龙）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>低于市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASCO电磁阀/不锈钢排气阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>款到发货</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生级阀门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江弗朗戈自控阀门有限公司（金科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全焊接球阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江宝泉阀门有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州雨辰流体设备有限公司</t>
-  </si>
-  <si>
-    <t>浙江朗格阀门科技有限公司</t>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京赛世达自动化科技有限公司</t>
-  </si>
-  <si>
-    <t>保一集团有限公司</t>
-  </si>
-  <si>
-    <t>永嘉县天虹阀门制造有限公司</t>
-  </si>
-  <si>
-    <t>波纹管截止阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>半球阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江亿众阀门有限公司</t>
-  </si>
-  <si>
-    <t>安徽纵横泵阀制造有限公司</t>
-  </si>
-  <si>
-    <t>扇形气动执行器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>象山石浦东海气缸厂（普通合伙）</t>
-  </si>
-  <si>
-    <t>永嘉县圣海阀门制造有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西隆达御威流体控制设备有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州诚博阀门有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>永嘉县康密迪阀门有限公司（良精）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江龙珠阀门科技有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>永嘉县上日阀门厂</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴伟阀门制造有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江天特阀门有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>永一阀门集团有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海白云泵阀制造有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江高创泵阀有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京航天金博波纹管有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江索特阀门有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海拓保实业发展有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>余姚永创电磁阀有限公司/北京欧科普自控设备有限公司（可开票）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江秀泰阀门有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州汉腾自动化设备有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津市盛凯达阀业有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津百利二通机械有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡市高商气动工业有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市申利达阀门销售中心（埃美柯）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢/铸铁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢/不锈钢</t>
-  </si>
-  <si>
-    <t>铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸铁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸截止球阀过滤器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>软密封闸阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>软密封闸阀/过滤器/橡胶瓣止回阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>软密封闸阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸截止</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水力控制阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸铁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬氟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬胶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬氟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔膜阀/止回阀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>全焊接球阀/氧气阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李登泰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>众源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸截止</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业调节阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-A</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖通调节阀/平衡阀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸铁/铸钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸铁/铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸铁/铸钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大口径硬密封闸阀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸铁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPVC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜/铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜/铸钢/不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不锈钢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动执行器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶瓷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年临时合格供方名录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>评定供应商等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>材质分类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州新盛阀门有限公司（祥松）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西山佳阀门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京环能鸿晟节能设备有限公司</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水力控制阀</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1240,18 +1251,18 @@
     <numFmt numFmtId="178" formatCode="_ [$￥-804]* #,##0.00_ ;_ [$￥-804]* \-#,##0.00_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1277,7 +1288,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1285,7 +1296,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1298,7 +1309,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1306,7 +1317,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1317,6 +1328,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1343,29 +1372,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,27 +1424,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,7 +1453,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,7 +1467,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1508,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1560,7 +1595,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="20% - 强调文字颜色 2 9 8" xfId="13"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="2"/>
@@ -1579,6 +1614,8 @@
     <cellStyle name="常规 41" xfId="4"/>
     <cellStyle name="常规 5 10" xfId="8"/>
     <cellStyle name="常规 95" xfId="5"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1636,12 +1673,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1671,12 +1708,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1884,28 +1921,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="9" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="15" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1918,18 +1955,18 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -1937,711 +1974,711 @@
       <c r="H2" s="24"/>
       <c r="I2" s="25"/>
       <c r="J2" s="19" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="14" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2651,485 +2688,485 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="K27" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3139,18 +3176,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3160,88 +3197,88 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3252,50 +3289,50 @@
       <c r="J42" s="3"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3305,835 +3342,835 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="K45" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="J47" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J49" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>55</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>56</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>61</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>62</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I67" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>63</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>64</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4143,403 +4180,403 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>65</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>66</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>68</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>70</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>72</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K77" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>73</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>74</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>75</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>76</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4548,33 +4585,33 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>77</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4583,21 +4620,21 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>78</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4608,411 +4645,411 @@
       <c r="J84" s="3"/>
       <c r="K84" s="13"/>
     </row>
-    <row r="85" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>79</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="I85" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>80</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J86" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K86" s="13"/>
     </row>
-    <row r="87" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>81</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J87" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K87" s="13"/>
     </row>
-    <row r="88" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>82</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K88" s="13"/>
     </row>
-    <row r="89" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>83</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K89" s="13"/>
     </row>
-    <row r="90" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>84</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J90" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K90" s="13"/>
     </row>
-    <row r="91" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>85</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J91" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>86</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J92" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>87</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>88</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J94" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K94" s="13"/>
     </row>
-    <row r="95" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>89</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K95" s="13"/>
     </row>
-    <row r="96" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>90</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K96" s="13"/>
     </row>
-    <row r="97" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>91</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5023,15 +5060,15 @@
       <c r="J97" s="3"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>92</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5042,15 +5079,15 @@
       <c r="J98" s="3"/>
       <c r="K98" s="13"/>
     </row>
-    <row r="99" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>93</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5061,15 +5098,15 @@
       <c r="J99" s="3"/>
       <c r="K99" s="13"/>
     </row>
-    <row r="100" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>94</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5080,15 +5117,15 @@
       <c r="J100" s="3"/>
       <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>95</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5099,15 +5136,15 @@
       <c r="J101" s="3"/>
       <c r="K101" s="13"/>
     </row>
-    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>96</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5118,15 +5155,15 @@
       <c r="J102" s="3"/>
       <c r="K102" s="13"/>
     </row>
-    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>97</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5137,15 +5174,15 @@
       <c r="J103" s="3"/>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>98</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5156,15 +5193,15 @@
       <c r="J104" s="3"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5175,15 +5212,15 @@
       <c r="J105" s="3"/>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5194,15 +5231,15 @@
       <c r="J106" s="3"/>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>101</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5213,15 +5250,15 @@
       <c r="J107" s="3"/>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>102</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5232,27 +5269,27 @@
       <c r="J108" s="3"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>103</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5263,15 +5300,15 @@
       <c r="J110" s="3"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>104</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5282,15 +5319,15 @@
       <c r="J111" s="3"/>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>105</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5301,15 +5338,15 @@
       <c r="J112" s="3"/>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>106</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5320,15 +5357,15 @@
       <c r="J113" s="3"/>
       <c r="K113" s="13"/>
     </row>
-    <row r="114" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>107</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5339,15 +5376,15 @@
       <c r="J114" s="3"/>
       <c r="K114" s="13"/>
     </row>
-    <row r="115" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>108</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5358,15 +5395,15 @@
       <c r="J115" s="3"/>
       <c r="K115" s="13"/>
     </row>
-    <row r="116" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>109</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5377,15 +5414,15 @@
       <c r="J116" s="3"/>
       <c r="K116" s="13"/>
     </row>
-    <row r="117" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>110</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5396,15 +5433,15 @@
       <c r="J117" s="3"/>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I118" s="16"/>
     </row>
